--- a/packet-tracer-file.xlsx
+++ b/packet-tracer-file.xlsx
@@ -18,7 +18,6 @@
     <sheet name="Adressage abandonnés" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171026"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1476,8 +1475,8 @@
   <dimension ref="A1:K271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E206" sqref="E206"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G115" sqref="G115:G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/packet-tracer-file.xlsx
+++ b/packet-tracer-file.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="357">
   <si>
     <t>Appliance</t>
   </si>
@@ -69,9 +69,6 @@
     <t>255.255.255.224</t>
   </si>
   <si>
-    <t>192.168.3.149</t>
-  </si>
-  <si>
     <t>255.255.255.248</t>
   </si>
   <si>
@@ -102,15 +99,9 @@
     <t>192.168.5.133</t>
   </si>
   <si>
-    <t>192.168.3.133</t>
-  </si>
-  <si>
     <t>255.255.255.240</t>
   </si>
   <si>
-    <t>192.168.3.158</t>
-  </si>
-  <si>
     <t>192.168.0.5</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>192.168.5.38</t>
   </si>
   <si>
-    <t>192.168.3.150</t>
-  </si>
-  <si>
     <t>192.168.4.230</t>
   </si>
   <si>
@@ -159,12 +147,6 @@
     <t>192.168.5.134</t>
   </si>
   <si>
-    <t>192.168.3.134</t>
-  </si>
-  <si>
-    <t>192.168.3.159</t>
-  </si>
-  <si>
     <t>192.168.0.6</t>
   </si>
   <si>
@@ -192,9 +174,6 @@
     <t>vlan20</t>
   </si>
   <si>
-    <t>192.168.3.145</t>
-  </si>
-  <si>
     <t>vlan30</t>
   </si>
   <si>
@@ -246,9 +225,6 @@
     <t>vlan110</t>
   </si>
   <si>
-    <t>192.168.3.129</t>
-  </si>
-  <si>
     <t>vlan120</t>
   </si>
   <si>
@@ -285,9 +261,6 @@
     <t>192.168.2.11</t>
   </si>
   <si>
-    <t>native 130</t>
-  </si>
-  <si>
     <t>Service Recherche&amp;developpement</t>
   </si>
   <si>
@@ -348,9 +321,6 @@
     <t>vtp server</t>
   </si>
   <si>
-    <t>192.168.3.148</t>
-  </si>
-  <si>
     <t>192.168.4.228</t>
   </si>
   <si>
@@ -372,12 +342,6 @@
     <t>192.168.4.196</t>
   </si>
   <si>
-    <t>192.168.3.132</t>
-  </si>
-  <si>
-    <t>192.168.3.156</t>
-  </si>
-  <si>
     <t>192.168.2.6</t>
   </si>
   <si>
@@ -432,9 +396,6 @@
     <t>192.168.5.35</t>
   </si>
   <si>
-    <t>192.168.3.147</t>
-  </si>
-  <si>
     <t>192.168.4.227</t>
   </si>
   <si>
@@ -459,9 +420,6 @@
     <t>192.168.5.131</t>
   </si>
   <si>
-    <t>192.168.3.155</t>
-  </si>
-  <si>
     <t>192.168.2.5</t>
   </si>
   <si>
@@ -498,9 +456,6 @@
     <t>for PrivateSwitchBack priority 100</t>
   </si>
   <si>
-    <t>192.168.3.146</t>
-  </si>
-  <si>
     <t>192.168.4.226</t>
   </si>
   <si>
@@ -525,12 +480,6 @@
     <t>192.168.5.130</t>
   </si>
   <si>
-    <t>192.168.3.130</t>
-  </si>
-  <si>
-    <t>192.168.3.154</t>
-  </si>
-  <si>
     <t>192.168.2.4</t>
   </si>
   <si>
@@ -558,9 +507,6 @@
     <t>192.168.2.13</t>
   </si>
   <si>
-    <t>native130</t>
-  </si>
-  <si>
     <t>EastBuildingFloor0Switch</t>
   </si>
   <si>
@@ -1084,6 +1030,69 @@
   </si>
   <si>
     <t>f0/21-23</t>
+  </si>
+  <si>
+    <t>192.168.4.97</t>
+  </si>
+  <si>
+    <t>192.168.4.98</t>
+  </si>
+  <si>
+    <t>192.168.4.99</t>
+  </si>
+  <si>
+    <t>192.168.4.100</t>
+  </si>
+  <si>
+    <t>192.168.4.101</t>
+  </si>
+  <si>
+    <t>192.168.4.102</t>
+  </si>
+  <si>
+    <t>192.168.4.1</t>
+  </si>
+  <si>
+    <t>192.168.4.2</t>
+  </si>
+  <si>
+    <t>192.168.4.3</t>
+  </si>
+  <si>
+    <t>192.168.4.4</t>
+  </si>
+  <si>
+    <t>192.168.4.5</t>
+  </si>
+  <si>
+    <t>192.168.4.6</t>
+  </si>
+  <si>
+    <t>192.168.4.69</t>
+  </si>
+  <si>
+    <t>192.168.4.70</t>
+  </si>
+  <si>
+    <t>192.168.4.65</t>
+  </si>
+  <si>
+    <t>192.168.4.68</t>
+  </si>
+  <si>
+    <t>192.168.4.67</t>
+  </si>
+  <si>
+    <t>192.168.4.66</t>
+  </si>
+  <si>
+    <t>TEST TEST TEST</t>
+  </si>
+  <si>
+    <t>number 0</t>
+  </si>
+  <si>
+    <t>number 1</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1162,6 +1171,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1475,19 +1487,19 @@
   <dimension ref="A1:K271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G115:G117"/>
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E253" sqref="D253:E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="13.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1500,71 +1512,67 @@
       <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C4" s="4">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C5" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1572,66 +1580,66 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C6" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C7" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C8" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C9" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C10" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>21</v>
@@ -1642,10 +1650,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C11" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>22</v>
@@ -1656,10 +1664,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C12" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -1670,10 +1678,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C13" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>24</v>
@@ -1684,155 +1692,149 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C14" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C15" s="4">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C16" s="4">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C17" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C18" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C19" s="4">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>306</v>
-      </c>
-      <c r="C20" s="4">
-        <v>130</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>287</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" t="s">
-        <v>9</v>
+        <v>288</v>
+      </c>
+      <c r="C23" s="4">
+        <v>130</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C24" s="4">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C25" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>14</v>
@@ -1840,69 +1842,69 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C26" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C27" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C28" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C29" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C30" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
@@ -1910,13 +1912,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C31" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>14</v>
@@ -1924,237 +1926,238 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C32" s="4">
+        <v>90</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C33" s="4">
+        <v>100</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="4">
+        <v>110</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="4">
+        <v>120</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="4">
+        <v>140</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="4">
+        <v>150</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="4">
+        <v>160</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="4">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="4">
+        <v>20</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="4">
+        <v>30</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="4">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="4">
+        <v>50</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="4">
+        <v>60</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="4">
+        <v>70</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="4">
         <v>80</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>315</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="D47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="4">
         <v>90</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>316</v>
-      </c>
-      <c r="C34" s="4">
-        <v>100</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>317</v>
-      </c>
-      <c r="C35" s="4">
-        <v>110</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>318</v>
-      </c>
-      <c r="C36" s="4">
-        <v>120</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>319</v>
-      </c>
-      <c r="C37" s="4">
-        <v>140</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>320</v>
-      </c>
-      <c r="C38" s="4">
-        <v>150</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>321</v>
-      </c>
-      <c r="C39" s="4">
-        <v>160</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>10</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="4">
-        <v>20</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="4">
-        <v>30</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="4">
-        <v>40</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="4">
-        <v>50</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="D48" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C46" s="4">
-        <v>60</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="4">
-        <v>70</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="4">
-        <v>80</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>14</v>
@@ -2162,13 +2165,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C49" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>14</v>
@@ -2176,635 +2179,564 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C50" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>72</v>
+        <v>342</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C51" s="4">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C52" s="4">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C53" s="4">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C54" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C55" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="4">
-        <v>160</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="4">
+        <v>130</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>85</v>
-      </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="C58" s="4">
-        <v>130</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>350</v>
-      </c>
-      <c r="C59" s="4">
-        <v>50</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="6"/>
+        <v>321</v>
+      </c>
+      <c r="C59" s="4"/>
       <c r="F59" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
       <c r="F60" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>338</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+        <v>333</v>
+      </c>
+      <c r="C61" s="4">
+        <v>140</v>
+      </c>
       <c r="F61" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G61" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>351</v>
-      </c>
-      <c r="C62" s="4">
-        <v>140</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>93</v>
-      </c>
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="4">
+        <v>130</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="C64" s="4">
-        <v>130</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>350</v>
-      </c>
-      <c r="C65" s="4">
-        <v>50</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="7"/>
+        <v>321</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="G65" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>338</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G67" t="s">
-        <v>91</v>
+        <v>333</v>
+      </c>
+      <c r="C67" s="4">
+        <v>140</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>351</v>
-      </c>
-      <c r="C68" s="4">
-        <v>140</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="4">
+        <v>130</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>95</v>
-      </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C70" s="4">
-        <v>130</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>87</v>
+        <v>110</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C71" s="4">
-        <v>110</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="6"/>
+        <v>120</v>
+      </c>
       <c r="F71" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="4">
-        <v>120</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="6"/>
+        <v>321</v>
+      </c>
+      <c r="C72" s="4"/>
       <c r="F72" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
       <c r="F73" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>338</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+        <v>333</v>
+      </c>
+      <c r="C74" s="4">
+        <v>140</v>
+      </c>
       <c r="F74" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>92</v>
       </c>
-      <c r="G74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>351</v>
-      </c>
-      <c r="C75" s="4">
-        <v>140</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="4">
+        <v>130</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>101</v>
-      </c>
       <c r="B77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="F77" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="4">
-        <v>130</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="G77" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
       <c r="F78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G78" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
       <c r="F79" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
       <c r="F80" t="s">
+        <v>94</v>
+      </c>
+      <c r="G80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="F81" t="s">
         <v>95</v>
       </c>
-      <c r="G80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="4">
+        <v>130</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="F84" t="s">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="F85" t="s">
+        <v>84</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="F86" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="F87" t="s">
+        <v>94</v>
+      </c>
+      <c r="G87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="F88" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="4">
+        <v>10</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="4">
+        <v>20</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="4">
+        <v>30</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="4">
+        <v>40</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="4">
+        <v>50</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="4">
+        <v>60</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="4">
+        <v>70</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>208</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="4">
-        <v>130</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>201</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" t="s">
-        <v>85</v>
-      </c>
-      <c r="G85" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>203</v>
-      </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>204</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" t="s">
-        <v>95</v>
-      </c>
-      <c r="G87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>103</v>
-      </c>
-      <c r="B91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" s="4">
-        <v>10</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>107</v>
-      </c>
-      <c r="H91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>55</v>
-      </c>
-      <c r="C92" s="4">
-        <v>20</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>57</v>
-      </c>
-      <c r="C93" s="4">
-        <v>30</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>59</v>
-      </c>
-      <c r="C94" s="4">
-        <v>40</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" s="4">
-        <v>50</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" s="4">
-        <v>60</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>14</v>
@@ -2812,13 +2744,13 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C97" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>14</v>
@@ -2826,13 +2758,13 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C98" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>14</v>
@@ -2840,13 +2772,13 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C99" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>14</v>
@@ -2854,364 +2786,337 @@
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C100" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C101" s="4">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C102" s="4">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C103" s="4">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C104" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C105" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>83</v>
-      </c>
-      <c r="C106" s="4">
-        <v>160</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>27</v>
+        <v>183</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="F106" t="s">
+        <v>81</v>
+      </c>
+      <c r="G106" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
       <c r="F107" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G107" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
       <c r="F108" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G108" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
       <c r="F109" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G109" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
       <c r="F110" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G110" t="s">
-        <v>91</v>
+        <v>113</v>
+      </c>
+      <c r="H110" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
       <c r="F111" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G111" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H111" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
       <c r="F112" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
-      </c>
-      <c r="H112" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
       <c r="F113" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G113" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
       <c r="F114" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G114" t="s">
-        <v>91</v>
+        <v>119</v>
+      </c>
+      <c r="H114" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
       <c r="F115" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G115" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H115" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
       <c r="F116" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="G116" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H116" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>332</v>
-      </c>
       <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" t="s">
-        <v>104</v>
-      </c>
-      <c r="G117" t="s">
-        <v>134</v>
-      </c>
-      <c r="H117" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
+      <c r="A118" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="4">
+        <v>10</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>104</v>
-      </c>
       <c r="B119" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C119" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>107</v>
-      </c>
-      <c r="H119" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C120" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C121" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C122" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C123" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C124" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>14</v>
@@ -3219,13 +3124,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C125" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>14</v>
@@ -3233,13 +3138,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C126" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>14</v>
@@ -3247,13 +3152,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C127" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>14</v>
@@ -3261,2004 +3166,1750 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C128" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C129" s="4">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>26</v>
+        <v>352</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C130" s="4">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C131" s="4">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C132" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C133" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>83</v>
-      </c>
-      <c r="C134" s="4">
-        <v>160</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>27</v>
+        <v>183</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="F134" t="s">
+        <v>81</v>
+      </c>
+      <c r="G134" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
       <c r="F135" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G135" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
       <c r="F136" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G136" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
       <c r="F137" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G137" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
       <c r="F138" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G138" t="s">
-        <v>91</v>
+        <v>115</v>
+      </c>
+      <c r="H138" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
       <c r="F139" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G139" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H139" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
       <c r="F140" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G140" t="s">
-        <v>131</v>
-      </c>
-      <c r="H140" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
       <c r="F141" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G141" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
       <c r="F142" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G142" t="s">
-        <v>91</v>
+        <v>121</v>
+      </c>
+      <c r="H142" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
       <c r="F143" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G143" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="H143" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
       <c r="F144" t="s">
+        <v>94</v>
+      </c>
+      <c r="G144" t="s">
+        <v>138</v>
+      </c>
+      <c r="H144" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>139</v>
+      </c>
+      <c r="B146" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" s="4">
+        <v>10</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G146" t="s">
+        <v>142</v>
+      </c>
+      <c r="H146" t="s">
+        <v>143</v>
+      </c>
+      <c r="I146" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="4">
+        <v>20</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>50</v>
+      </c>
+      <c r="C148" s="4">
+        <v>30</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" s="4">
+        <v>40</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="4">
+        <v>50</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" s="4">
+        <v>60</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>58</v>
+      </c>
+      <c r="C152" s="4">
+        <v>70</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" s="4">
+        <v>80</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154" s="4">
+        <v>90</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" s="4">
+        <v>100</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G144" t="s">
-        <v>125</v>
-      </c>
-      <c r="H144" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>336</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" t="s">
-        <v>103</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="E155" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>66</v>
+      </c>
+      <c r="C156" s="4">
+        <v>110</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>67</v>
+      </c>
+      <c r="C157" s="4">
+        <v>120</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" s="4">
+        <v>130</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H145" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="E158" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>71</v>
+      </c>
+      <c r="C159" s="4">
+        <v>140</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B147" t="s">
-        <v>51</v>
-      </c>
-      <c r="C147" s="4">
-        <v>10</v>
-      </c>
-      <c r="D147" s="4" t="s">
+      <c r="E159" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>73</v>
+      </c>
+      <c r="C160" s="4">
+        <v>150</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G147" t="s">
-        <v>156</v>
-      </c>
-      <c r="H147" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>55</v>
-      </c>
-      <c r="C148" s="4">
-        <v>20</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>57</v>
-      </c>
-      <c r="C149" s="4">
-        <v>30</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>59</v>
-      </c>
-      <c r="C150" s="4">
-        <v>40</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>61</v>
-      </c>
-      <c r="C151" s="4">
-        <v>50</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>63</v>
-      </c>
-      <c r="C152" s="4">
-        <v>60</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>65</v>
-      </c>
-      <c r="C153" s="4">
-        <v>70</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>67</v>
-      </c>
-      <c r="C154" s="4">
-        <v>80</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>69</v>
-      </c>
-      <c r="C155" s="4">
-        <v>90</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>71</v>
-      </c>
-      <c r="C156" s="4">
-        <v>100</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>73</v>
-      </c>
-      <c r="C157" s="4">
-        <v>110</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>75</v>
-      </c>
-      <c r="C158" s="4">
-        <v>120</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>77</v>
-      </c>
-      <c r="C159" s="4">
-        <v>130</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>79</v>
-      </c>
-      <c r="C160" s="4">
-        <v>140</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="E160" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C161" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>83</v>
-      </c>
-      <c r="C162" s="4">
-        <v>160</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="C162" s="4"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
+      <c r="A163" t="s">
+        <v>156</v>
+      </c>
+      <c r="B163" t="s">
+        <v>69</v>
+      </c>
+      <c r="C163" s="4">
+        <v>130</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>173</v>
-      </c>
       <c r="B164" t="s">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="C164" s="4">
-        <v>130</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="F164" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>352</v>
-      </c>
-      <c r="C165" s="4">
-        <v>50</v>
-      </c>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="C165" s="4"/>
       <c r="F165" t="s">
-        <v>175</v>
+        <v>111</v>
+      </c>
+      <c r="G165" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
       <c r="F166" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G166" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>203</v>
-      </c>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" t="s">
-        <v>122</v>
-      </c>
-      <c r="G167" t="s">
-        <v>91</v>
+        <v>320</v>
+      </c>
+      <c r="C167" s="4">
+        <v>140</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>338</v>
-      </c>
-      <c r="C168" s="4">
-        <v>140</v>
-      </c>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
+      <c r="A169" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169" t="s">
+        <v>69</v>
+      </c>
+      <c r="C169" s="4">
+        <v>130</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>176</v>
-      </c>
       <c r="B170" t="s">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="C170" s="4">
-        <v>130</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" t="s">
-        <v>178</v>
+        <v>50</v>
+      </c>
+      <c r="F170" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>352</v>
-      </c>
-      <c r="C171" s="4">
-        <v>50</v>
-      </c>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="C171" s="4"/>
       <c r="F171" t="s">
-        <v>175</v>
+        <v>111</v>
+      </c>
+      <c r="G171" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
       <c r="F172" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G172" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>203</v>
-      </c>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" t="s">
-        <v>122</v>
-      </c>
-      <c r="G173" t="s">
-        <v>91</v>
+        <v>320</v>
+      </c>
+      <c r="C173" s="4">
+        <v>140</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>338</v>
-      </c>
-      <c r="C174" s="4">
-        <v>140</v>
-      </c>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
+      <c r="A175" t="s">
+        <v>161</v>
+      </c>
+      <c r="B175" t="s">
+        <v>69</v>
+      </c>
+      <c r="C175" s="4">
+        <v>130</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>179</v>
-      </c>
       <c r="B176" t="s">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="C176" s="4">
-        <v>130</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="F176" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C177" s="4">
-        <v>90</v>
-      </c>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
+        <v>100</v>
+      </c>
       <c r="F177" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>344</v>
-      </c>
-      <c r="C178" s="4">
-        <v>100</v>
-      </c>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="C178" s="4"/>
       <c r="F178" t="s">
-        <v>182</v>
+        <v>111</v>
+      </c>
+      <c r="G178" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
       <c r="F179" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G179" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>203</v>
-      </c>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" t="s">
-        <v>122</v>
-      </c>
-      <c r="G180" t="s">
-        <v>91</v>
+        <v>320</v>
+      </c>
+      <c r="C180" s="4">
+        <v>140</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>338</v>
-      </c>
-      <c r="C181" s="4">
-        <v>140</v>
-      </c>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="C181" s="4"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
+      <c r="A182" t="s">
+        <v>111</v>
+      </c>
+      <c r="B182" t="s">
+        <v>69</v>
+      </c>
+      <c r="C182" s="4">
+        <v>130</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>123</v>
-      </c>
       <c r="B183" t="s">
-        <v>77</v>
-      </c>
-      <c r="C183" s="4">
-        <v>130</v>
-      </c>
-      <c r="D183" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E183" s="4" t="s">
-        <v>12</v>
+      <c r="C183" s="4"/>
+      <c r="F183" t="s">
+        <v>161</v>
       </c>
       <c r="G183" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
       <c r="F184" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G184" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
       <c r="F185" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G185" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
       <c r="F186" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="G186" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
       <c r="F187" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G187" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>208</v>
-      </c>
       <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" t="s">
-        <v>103</v>
-      </c>
-      <c r="G188" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
+      <c r="A189" t="s">
+        <v>110</v>
+      </c>
+      <c r="B189" t="s">
+        <v>69</v>
+      </c>
+      <c r="C189" s="4">
+        <v>130</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>122</v>
-      </c>
       <c r="B190" t="s">
-        <v>77</v>
-      </c>
-      <c r="C190" s="4">
-        <v>130</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>12</v>
+        <v>183</v>
+      </c>
+      <c r="C190" s="4"/>
+      <c r="F190" t="s">
+        <v>161</v>
       </c>
       <c r="G190" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
       <c r="F191" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G191" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
       <c r="F192" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G192" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
       <c r="F193" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="G193" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
       <c r="F194" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G194" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>208</v>
-      </c>
       <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" t="s">
-        <v>103</v>
-      </c>
-      <c r="G195" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
+      <c r="A196" t="s">
+        <v>167</v>
+      </c>
+      <c r="B196" t="s">
+        <v>69</v>
+      </c>
+      <c r="C196" s="4">
+        <v>130</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>185</v>
-      </c>
       <c r="B197" t="s">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="C197" s="4">
-        <v>130</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" t="s">
-        <v>178</v>
+        <v>60</v>
+      </c>
+      <c r="F197" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C198" s="4">
-        <v>60</v>
-      </c>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
+        <v>70</v>
+      </c>
       <c r="F198" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C199" s="4">
-        <v>70</v>
-      </c>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
+        <v>80</v>
+      </c>
       <c r="F199" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C200" s="4">
-        <v>80</v>
-      </c>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
+        <v>50</v>
+      </c>
       <c r="F200" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>353</v>
-      </c>
-      <c r="C201" s="4">
-        <v>50</v>
-      </c>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="C201" s="4"/>
       <c r="F201" t="s">
-        <v>175</v>
+        <v>117</v>
+      </c>
+      <c r="G201" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
       <c r="F202" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G202" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>203</v>
-      </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" t="s">
-        <v>128</v>
-      </c>
-      <c r="G203" t="s">
-        <v>91</v>
+        <v>320</v>
+      </c>
+      <c r="C203" s="4">
+        <v>140</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>338</v>
-      </c>
-      <c r="C204" s="4">
-        <v>140</v>
-      </c>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="C204" s="4"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
+      <c r="A205" t="s">
+        <v>171</v>
+      </c>
+      <c r="B205" t="s">
+        <v>69</v>
+      </c>
+      <c r="C205" s="4">
+        <v>130</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>189</v>
-      </c>
       <c r="B206" t="s">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="C206" s="4">
-        <v>130</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" t="s">
-        <v>87</v>
+        <v>30</v>
+      </c>
+      <c r="F206" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C207" s="4">
-        <v>30</v>
-      </c>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
+        <v>40</v>
+      </c>
       <c r="F207" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C208" s="4">
-        <v>40</v>
-      </c>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
+        <v>50</v>
+      </c>
       <c r="F208" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>353</v>
-      </c>
-      <c r="C209" s="4">
-        <v>50</v>
-      </c>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="C209" s="4"/>
       <c r="F209" t="s">
-        <v>175</v>
+        <v>117</v>
+      </c>
+      <c r="G209" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
       <c r="F210" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G210" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>203</v>
-      </c>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
-      <c r="F211" t="s">
-        <v>128</v>
-      </c>
-      <c r="G211" t="s">
-        <v>91</v>
+        <v>320</v>
+      </c>
+      <c r="C211" s="4">
+        <v>140</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>338</v>
-      </c>
-      <c r="C212" s="4">
-        <v>140</v>
-      </c>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="C212" s="4"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
+      <c r="A213" t="s">
+        <v>175</v>
+      </c>
+      <c r="B213" t="s">
+        <v>69</v>
+      </c>
+      <c r="C213" s="4">
+        <v>130</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>193</v>
-      </c>
       <c r="B214" t="s">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="C214" s="4">
-        <v>130</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="F214" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C215" s="4">
-        <v>10</v>
-      </c>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
+        <v>20</v>
+      </c>
       <c r="F215" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>344</v>
-      </c>
-      <c r="C216" s="4">
-        <v>20</v>
-      </c>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="C216" s="4"/>
       <c r="F216" t="s">
-        <v>196</v>
+        <v>117</v>
+      </c>
+      <c r="G216" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
       <c r="F217" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G217" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>203</v>
-      </c>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" t="s">
-        <v>128</v>
-      </c>
-      <c r="G218" t="s">
-        <v>91</v>
+        <v>320</v>
+      </c>
+      <c r="C218" s="4">
+        <v>140</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
-        <v>338</v>
-      </c>
-      <c r="C219" s="4">
-        <v>140</v>
-      </c>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="C219" s="4"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
+      <c r="A220" t="s">
+        <v>117</v>
+      </c>
+      <c r="B220" t="s">
+        <v>69</v>
+      </c>
+      <c r="C220" s="4">
+        <v>130</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>129</v>
-      </c>
       <c r="B221" t="s">
-        <v>77</v>
-      </c>
-      <c r="C221" s="4">
-        <v>130</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>12</v>
+        <v>183</v>
+      </c>
+      <c r="C221" s="4"/>
+      <c r="F221" t="s">
+        <v>175</v>
       </c>
       <c r="G221" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
       <c r="F222" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="G222" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
       <c r="F223" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="G223" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
       <c r="F224" t="s">
+        <v>95</v>
+      </c>
+      <c r="G224" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>190</v>
+      </c>
+      <c r="C225" s="4"/>
+      <c r="F225" t="s">
+        <v>94</v>
+      </c>
+      <c r="G225" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C226" s="4"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>116</v>
+      </c>
+      <c r="B227" t="s">
+        <v>69</v>
+      </c>
+      <c r="C227" s="4">
+        <v>130</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>183</v>
+      </c>
+      <c r="C228" s="4"/>
+      <c r="F228" t="s">
+        <v>175</v>
+      </c>
+      <c r="G228" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
         <v>185</v>
       </c>
-      <c r="G224" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>206</v>
-      </c>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" t="s">
-        <v>104</v>
-      </c>
-      <c r="G225" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
-        <v>208</v>
-      </c>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="4"/>
-      <c r="F226" t="s">
-        <v>103</v>
-      </c>
-      <c r="G226" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>128</v>
-      </c>
-      <c r="B228" t="s">
-        <v>77</v>
-      </c>
-      <c r="C228" s="4">
+      <c r="C229" s="4"/>
+      <c r="F229" t="s">
+        <v>171</v>
+      </c>
+      <c r="G229" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>186</v>
+      </c>
+      <c r="C230" s="4"/>
+      <c r="F230" t="s">
+        <v>167</v>
+      </c>
+      <c r="G230" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>188</v>
+      </c>
+      <c r="C231" s="4"/>
+      <c r="F231" t="s">
+        <v>95</v>
+      </c>
+      <c r="G231" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>190</v>
+      </c>
+      <c r="C232" s="4"/>
+      <c r="F232" t="s">
+        <v>94</v>
+      </c>
+      <c r="G232" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C233" s="4"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>181</v>
+      </c>
+      <c r="B234" t="s">
+        <v>69</v>
+      </c>
+      <c r="C234" s="4">
         <v>130</v>
       </c>
-      <c r="D228" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E228" s="4" t="s">
+      <c r="D234" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E234" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G228" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B229" t="s">
-        <v>201</v>
-      </c>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" t="s">
-        <v>193</v>
-      </c>
-      <c r="G229" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
-        <v>203</v>
-      </c>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" t="s">
-        <v>189</v>
-      </c>
-      <c r="G230" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
-        <v>204</v>
-      </c>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" t="s">
-        <v>185</v>
-      </c>
-      <c r="G231" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B232" t="s">
-        <v>206</v>
-      </c>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="4"/>
-      <c r="F232" t="s">
-        <v>104</v>
-      </c>
-      <c r="G232" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
-        <v>208</v>
-      </c>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="4"/>
-      <c r="F233" t="s">
-        <v>103</v>
-      </c>
-      <c r="G233" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>199</v>
-      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="C235" s="4">
-        <v>130</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G235" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="F235" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C236" s="4">
         <v>160</v>
       </c>
-      <c r="D236" s="4"/>
-      <c r="E236" s="4"/>
       <c r="F236" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C237" s="4">
         <v>160</v>
       </c>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
       <c r="F237" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="C238" s="4">
         <v>160</v>
       </c>
-      <c r="D238" s="4"/>
-      <c r="E238" s="4"/>
       <c r="F238" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="C239" s="4">
         <v>160</v>
       </c>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4"/>
       <c r="F239" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>208</v>
-      </c>
-      <c r="C240" s="4">
-        <v>160</v>
-      </c>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4"/>
+        <v>304</v>
+      </c>
+      <c r="C240" s="4"/>
       <c r="F240" t="s">
-        <v>209</v>
+        <v>114</v>
+      </c>
+      <c r="G240" t="s">
+        <v>192</v>
+      </c>
+      <c r="H240" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4"/>
       <c r="F241" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="G241" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="H241" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
-        <v>323</v>
-      </c>
       <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="4"/>
-      <c r="F242" t="s">
-        <v>124</v>
-      </c>
-      <c r="G242" t="s">
-        <v>211</v>
-      </c>
-      <c r="H242" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="4"/>
+      <c r="A243" t="s">
+        <v>112</v>
+      </c>
+      <c r="B243" t="s">
+        <v>69</v>
+      </c>
+      <c r="C243" s="4">
+        <v>130</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>124</v>
-      </c>
       <c r="B244" t="s">
-        <v>77</v>
-      </c>
-      <c r="C244" s="4">
-        <v>130</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>12</v>
+        <v>306</v>
+      </c>
+      <c r="C244" s="4"/>
+      <c r="F244" t="s">
+        <v>195</v>
       </c>
       <c r="G244" t="s">
-        <v>87</v>
+        <v>119</v>
+      </c>
+      <c r="H244" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="4"/>
       <c r="F245" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="G245" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="H245" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="4"/>
       <c r="F246" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G246" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="H246" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
-        <v>323</v>
-      </c>
       <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="4"/>
-      <c r="F247" t="s">
-        <v>103</v>
-      </c>
-      <c r="G247" t="s">
-        <v>215</v>
-      </c>
-      <c r="H247" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
-      <c r="E248" s="4"/>
+      <c r="A248" t="s">
+        <v>114</v>
+      </c>
+      <c r="B248" t="s">
+        <v>69</v>
+      </c>
+      <c r="C248" s="4">
+        <v>130</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>126</v>
-      </c>
       <c r="B249" t="s">
-        <v>77</v>
-      </c>
-      <c r="C249" s="4">
-        <v>130</v>
-      </c>
-      <c r="D249" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>12</v>
+        <v>306</v>
+      </c>
+      <c r="C249" s="4"/>
+      <c r="F249" t="s">
+        <v>195</v>
       </c>
       <c r="G249" t="s">
-        <v>87</v>
+        <v>121</v>
+      </c>
+      <c r="H249" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="4"/>
       <c r="F250" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="G250" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="H250" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
-      <c r="E251" s="4"/>
       <c r="F251" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G251" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="H251" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B252" t="s">
-        <v>323</v>
-      </c>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
-      <c r="F252" t="s">
-        <v>103</v>
-      </c>
-      <c r="G252" t="s">
-        <v>214</v>
-      </c>
-      <c r="H252" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>199</v>
+      </c>
+      <c r="B253" t="s">
+        <v>69</v>
+      </c>
+      <c r="C253" s="4">
+        <v>130</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>217</v>
-      </c>
       <c r="B254" t="s">
-        <v>77</v>
-      </c>
-      <c r="C254" s="4">
-        <v>130</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>12</v>
+        <v>304</v>
+      </c>
+      <c r="C254" s="4"/>
+      <c r="F254" t="s">
+        <v>9</v>
       </c>
       <c r="G254" t="s">
-        <v>87</v>
+        <v>122</v>
+      </c>
+      <c r="H254" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
       <c r="F255" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="G255" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="H255" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
       <c r="F256" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G256" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H256" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
       <c r="F257" t="s">
-        <v>150</v>
-      </c>
-      <c r="G257" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="H257" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>89</v>
+        <v>307</v>
       </c>
       <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="4"/>
       <c r="F258" t="s">
-        <v>7</v>
+        <v>201</v>
+      </c>
+      <c r="G258" t="s">
+        <v>119</v>
       </c>
       <c r="H258" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
-        <v>325</v>
-      </c>
       <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="4"/>
-      <c r="F259" t="s">
-        <v>219</v>
-      </c>
-      <c r="G259" t="s">
-        <v>131</v>
-      </c>
-      <c r="H259" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="4"/>
+      <c r="A260" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" t="s">
+        <v>69</v>
+      </c>
+      <c r="C260" s="4">
+        <v>130</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>9</v>
-      </c>
       <c r="B261" t="s">
-        <v>77</v>
-      </c>
-      <c r="C261" s="4">
-        <v>130</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>12</v>
+        <v>304</v>
+      </c>
+      <c r="C261" s="4"/>
+      <c r="F261" t="s">
+        <v>199</v>
       </c>
       <c r="G261" t="s">
-        <v>87</v>
+        <v>138</v>
+      </c>
+      <c r="H261" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4"/>
       <c r="F262" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="G262" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="H262" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="4"/>
       <c r="F263" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G263" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H263" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
-      <c r="E264" s="4"/>
       <c r="F264" t="s">
-        <v>151</v>
-      </c>
-      <c r="G264" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H264" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
-      <c r="E265" s="4"/>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>201</v>
+      </c>
+      <c r="G265" t="s">
+        <v>121</v>
       </c>
       <c r="H265" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
-        <v>326</v>
-      </c>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" t="s">
-        <v>219</v>
-      </c>
-      <c r="G266" t="s">
-        <v>133</v>
-      </c>
-      <c r="H266" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>201</v>
+      </c>
+      <c r="B267" t="s">
+        <v>69</v>
+      </c>
+      <c r="C267" s="4">
+        <v>130</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>219</v>
-      </c>
       <c r="B268" t="s">
-        <v>77</v>
-      </c>
-      <c r="C268" s="4">
-        <v>130</v>
-      </c>
-      <c r="D268" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>12</v>
+        <v>304</v>
+      </c>
+      <c r="C268" s="4"/>
+      <c r="F268" t="s">
+        <v>199</v>
       </c>
       <c r="G268" t="s">
-        <v>87</v>
+        <v>193</v>
+      </c>
+      <c r="H268" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
       <c r="F269" t="s">
-        <v>217</v>
+        <v>9</v>
       </c>
       <c r="G269" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="H269" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>323</v>
-      </c>
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="C270" s="4">
+        <v>150</v>
+      </c>
       <c r="F270" t="s">
-        <v>9</v>
-      </c>
-      <c r="G270" t="s">
-        <v>210</v>
-      </c>
-      <c r="H270" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>208</v>
-      </c>
-      <c r="C271" s="4">
-        <v>150</v>
-      </c>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
+        <v>320</v>
+      </c>
+      <c r="C271" s="3">
+        <v>130</v>
+      </c>
       <c r="F271" t="s">
-        <v>222</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5302,18 +4953,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B2" s="4">
         <v>10</v>
@@ -5324,7 +4975,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B3" s="4">
         <v>20</v>
@@ -5335,7 +4986,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B4" s="4">
         <v>30</v>
@@ -5346,7 +4997,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B5" s="4">
         <v>40</v>
@@ -5357,7 +5008,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B6" s="4">
         <v>50</v>
@@ -5379,7 +5030,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B8" s="4">
         <v>70</v>
@@ -5390,7 +5041,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B9" s="4">
         <v>80</v>
@@ -5401,7 +5052,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B10" s="4">
         <v>90</v>
@@ -5412,7 +5063,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B11" s="4">
         <v>100</v>
@@ -5423,7 +5074,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B12" s="4">
         <v>110</v>
@@ -5434,7 +5085,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B13" s="4">
         <v>120</v>
@@ -5445,7 +5096,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B14" s="4">
         <v>130</v>
@@ -5456,7 +5107,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B15" s="4">
         <v>140</v>
@@ -5467,7 +5118,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B16" s="4">
         <v>150</v>
@@ -5478,7 +5129,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B17" s="4">
         <v>160</v>
@@ -5518,13 +5169,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="12" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5535,7 +5186,7 @@
         <v>130</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
@@ -5543,13 +5194,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C3" s="11">
         <v>10</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>14</v>
@@ -5557,27 +5208,27 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C4" s="11">
         <v>20</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C5" s="11">
         <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>14</v>
@@ -5585,27 +5236,27 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C6" s="11">
         <v>40</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C7" s="11">
         <v>50</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -5613,13 +5264,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C8" s="11">
         <v>60</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>14</v>
@@ -5627,13 +5278,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C9" s="11">
         <v>70</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>14</v>
@@ -5641,13 +5292,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C10" s="11">
         <v>80</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>14</v>
@@ -5655,13 +5306,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C11" s="11">
         <v>90</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>14</v>
@@ -5669,13 +5320,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C12" s="11">
         <v>100</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>14</v>
@@ -5683,97 +5334,97 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C13" s="11">
         <v>110</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C14" s="11">
         <v>120</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C15" s="11">
         <v>140</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C16" s="11">
         <v>150</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C17" s="11">
         <v>160</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="12" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C20" s="9">
         <v>130</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>12</v>
@@ -5781,13 +5432,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C21" s="9">
         <v>10</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>14</v>
@@ -5795,27 +5446,27 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C22" s="9">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C23" s="9">
         <v>30</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>14</v>
@@ -5823,27 +5474,27 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C24" s="9">
         <v>40</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C25" s="9">
         <v>50</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>12</v>
@@ -5851,13 +5502,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C26" s="9">
         <v>60</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>14</v>
@@ -5865,13 +5516,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C27" s="9">
         <v>70</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>14</v>
@@ -5879,13 +5530,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C28" s="9">
         <v>80</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>14</v>
@@ -5893,13 +5544,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C29" s="9">
         <v>90</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>14</v>
@@ -5907,13 +5558,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C30" s="9">
         <v>100</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>14</v>
@@ -5921,120 +5572,120 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C31" s="9">
         <v>110</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C32" s="9">
         <v>120</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C33" s="9">
         <v>140</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C34" s="9">
         <v>150</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C35" s="9">
         <v>160</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C37" s="9">
         <v>10</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C38" s="9">
         <v>20</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C39" s="9">
         <v>30</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>14</v>
@@ -6042,27 +5693,27 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C40" s="9">
         <v>40</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C41" s="9">
         <v>50</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>12</v>
@@ -6070,13 +5721,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C42" s="9">
         <v>60</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>14</v>
@@ -6084,13 +5735,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C43" s="9">
         <v>70</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>14</v>
@@ -6098,13 +5749,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C44" s="9">
         <v>80</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>14</v>
@@ -6112,13 +5763,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C45" s="9">
         <v>90</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>14</v>
@@ -6126,13 +5777,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C46" s="9">
         <v>100</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>14</v>
@@ -6140,41 +5791,41 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C47" s="9">
         <v>110</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C48" s="9">
         <v>120</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C49" s="9">
         <v>130</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>12</v>
@@ -6182,44 +5833,44 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C50" s="9">
         <v>140</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C51" s="9">
         <v>150</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C52" s="9">
         <v>160</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
